--- a/data/Spring.xlsx
+++ b/data/Spring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\discord-bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC16C36-AC51-4DE0-9AE0-C2D0B60BCB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EE50E7-3C5C-41DE-BD29-E2899D8C56F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82FD5575-4027-4B56-BA05-C5E95FA804B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82FD5575-4027-4B56-BA05-C5E95FA804B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -44,33 +44,6 @@
     <t>Погода</t>
   </si>
   <si>
-    <t>Снег</t>
-  </si>
-  <si>
-    <t>Мокрый снег</t>
-  </si>
-  <si>
-    <t>Пасмурно</t>
-  </si>
-  <si>
-    <t>Морось</t>
-  </si>
-  <si>
-    <t>Дождь</t>
-  </si>
-  <si>
-    <t>Чисто</t>
-  </si>
-  <si>
-    <t>Переменная облачность</t>
-  </si>
-  <si>
-    <t>Морской шторм</t>
-  </si>
-  <si>
-    <t>Гроза</t>
-  </si>
-  <si>
     <t>Эффекты</t>
   </si>
   <si>
@@ -105,6 +78,33 @@
   </si>
   <si>
     <t>Сильный дождь, молнии, сильный ветер</t>
+  </si>
+  <si>
+    <t>❄️Снег</t>
+  </si>
+  <si>
+    <t>🌨️Мокрый снег</t>
+  </si>
+  <si>
+    <t>☁️Пасмурно</t>
+  </si>
+  <si>
+    <t>🌦️Морось</t>
+  </si>
+  <si>
+    <t>🌧️Дождь</t>
+  </si>
+  <si>
+    <t>☀️Ясно</t>
+  </si>
+  <si>
+    <t>⛅Переменная облачность</t>
+  </si>
+  <si>
+    <t>🌬️Морской шторм</t>
+  </si>
+  <si>
+    <t>⛈️Гроза</t>
   </si>
 </sst>
 </file>
@@ -497,12 +497,12 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,21 +533,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,10 +555,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,10 +566,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,10 +588,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,10 +610,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,10 +632,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,10 +643,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +687,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,10 +698,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,10 +709,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,10 +720,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,10 +731,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
